--- a/livre_finance.xlsx
+++ b/livre_finance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\issak\Documents\M1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B735E5D5-E536-4B6E-93A4-E707DF628A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F715CB-793E-47DA-A8EA-2CA6F35AF2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{120CFF82-7D80-47BB-94B0-3F3E49DAD1A1}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,7 +549,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <f>C4+C2</f>
+        <v>43.9</v>
+      </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
